--- a/tna.xlsx
+++ b/tna.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22360"/>
+    <workbookView windowWidth="27900" windowHeight="11780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -348,24 +348,41 @@
   <si>
     <t>2022Q1</t>
   </si>
+  <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
+    <t>2022Q3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -387,11 +404,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,11 +434,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -434,15 +451,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,16 +465,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,6 +476,22 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,16 +510,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,16 +538,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,7 +554,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,175 +734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,11 +836,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,21 +856,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,6 +886,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -893,17 +910,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,32 +938,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -955,115 +972,115 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,23 +1104,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -1111,7 +1128,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -1451,10 +1468,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BB58"/>
+  <dimension ref="A1:BB60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1651,9 +1668,7 @@
       <c r="I2" s="8">
         <v>83334</v>
       </c>
-      <c r="J2" s="8">
-        <v>0</v>
-      </c>
+      <c r="J2" s="8"/>
       <c r="K2" s="8">
         <v>12273452</v>
       </c>
@@ -1669,12 +1684,8 @@
       <c r="O2" s="8">
         <v>519</v>
       </c>
-      <c r="P2" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>0</v>
-      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
       <c r="R2" s="8">
         <v>8522</v>
       </c>
@@ -1708,9 +1719,7 @@
       <c r="AB2" s="8">
         <v>2997078</v>
       </c>
-      <c r="AC2" s="8">
-        <v>0</v>
-      </c>
+      <c r="AC2" s="8"/>
       <c r="AD2" s="8">
         <v>109512</v>
       </c>
@@ -1815,9 +1824,7 @@
       <c r="I3" s="8">
         <v>88420</v>
       </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
+      <c r="J3" s="8"/>
       <c r="K3" s="8">
         <v>12231509</v>
       </c>
@@ -1833,12 +1840,8 @@
       <c r="O3" s="8">
         <v>473</v>
       </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>0</v>
-      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
       <c r="R3" s="8">
         <v>8850</v>
       </c>
@@ -1872,9 +1875,7 @@
       <c r="AB3" s="8">
         <v>2998458</v>
       </c>
-      <c r="AC3" s="8">
-        <v>0</v>
-      </c>
+      <c r="AC3" s="8"/>
       <c r="AD3" s="8">
         <v>103469</v>
       </c>
@@ -1979,9 +1980,7 @@
       <c r="I4" s="8">
         <v>81552</v>
       </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
+      <c r="J4" s="8"/>
       <c r="K4" s="8">
         <v>11273306</v>
       </c>
@@ -1997,12 +1996,8 @@
       <c r="O4" s="8">
         <v>339</v>
       </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
-      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
       <c r="R4" s="8">
         <v>7468</v>
       </c>
@@ -2036,9 +2031,7 @@
       <c r="AB4" s="8">
         <v>2569814</v>
       </c>
-      <c r="AC4" s="8">
-        <v>0</v>
-      </c>
+      <c r="AC4" s="8"/>
       <c r="AD4" s="8">
         <v>84568</v>
       </c>
@@ -2143,9 +2136,7 @@
       <c r="I5" s="8">
         <v>60435</v>
       </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
+      <c r="J5" s="8"/>
       <c r="K5" s="8">
         <v>10149978</v>
       </c>
@@ -2161,12 +2152,8 @@
       <c r="O5" s="8">
         <v>226</v>
       </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0</v>
-      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
       <c r="R5" s="8">
         <v>5346</v>
       </c>
@@ -2200,9 +2187,7 @@
       <c r="AB5" s="8">
         <v>2170569</v>
       </c>
-      <c r="AC5" s="8">
-        <v>0</v>
-      </c>
+      <c r="AC5" s="8"/>
       <c r="AD5" s="8">
         <v>230233</v>
       </c>
@@ -2325,12 +2310,8 @@
       <c r="O6" s="8">
         <v>192</v>
       </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
       <c r="R6" s="8">
         <v>4334</v>
       </c>
@@ -2364,9 +2345,7 @@
       <c r="AB6" s="8">
         <v>2030787</v>
       </c>
-      <c r="AC6" s="8">
-        <v>0</v>
-      </c>
+      <c r="AC6" s="8"/>
       <c r="AD6" s="8">
         <v>214003</v>
       </c>
@@ -2489,12 +2468,8 @@
       <c r="O7" s="8">
         <v>215</v>
       </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>0</v>
-      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
       <c r="R7" s="8">
         <v>5013</v>
       </c>
@@ -2528,9 +2503,7 @@
       <c r="AB7" s="8">
         <v>2305617</v>
       </c>
-      <c r="AC7" s="8">
-        <v>0</v>
-      </c>
+      <c r="AC7" s="8"/>
       <c r="AD7" s="8">
         <v>351073</v>
       </c>
@@ -2653,12 +2626,8 @@
       <c r="O8" s="8">
         <v>249</v>
       </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>0</v>
-      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
       <c r="R8" s="8">
         <v>5655</v>
       </c>
@@ -2692,9 +2661,7 @@
       <c r="AB8" s="8">
         <v>2597425</v>
       </c>
-      <c r="AC8" s="8">
-        <v>0</v>
-      </c>
+      <c r="AC8" s="8"/>
       <c r="AD8" s="8">
         <v>537039</v>
       </c>
@@ -2817,12 +2784,8 @@
       <c r="O9" s="8">
         <v>256</v>
       </c>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>0</v>
-      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
       <c r="R9" s="8">
         <v>5509</v>
       </c>
@@ -2856,9 +2819,7 @@
       <c r="AB9" s="8">
         <v>2659515</v>
       </c>
-      <c r="AC9" s="8">
-        <v>0</v>
-      </c>
+      <c r="AC9" s="8"/>
       <c r="AD9" s="8">
         <v>562211</v>
       </c>
@@ -2981,12 +2942,8 @@
       <c r="O10" s="8">
         <v>250</v>
       </c>
-      <c r="P10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>0</v>
-      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
       <c r="R10" s="8">
         <v>5586</v>
       </c>
@@ -3018,9 +2975,7 @@
       <c r="AB10" s="8">
         <v>2687392</v>
       </c>
-      <c r="AC10" s="8">
-        <v>0</v>
-      </c>
+      <c r="AC10" s="8"/>
       <c r="AD10" s="8">
         <v>583744</v>
       </c>
@@ -3143,12 +3098,8 @@
       <c r="O11" s="8">
         <v>227</v>
       </c>
-      <c r="P11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>0</v>
-      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
       <c r="R11" s="8">
         <v>4861</v>
       </c>
@@ -3182,9 +3133,7 @@
       <c r="AB11" s="8">
         <v>2467253</v>
       </c>
-      <c r="AC11" s="8">
-        <v>0</v>
-      </c>
+      <c r="AC11" s="8"/>
       <c r="AD11" s="8">
         <v>507430</v>
       </c>
@@ -3307,12 +3256,8 @@
       <c r="O12" s="8">
         <v>269</v>
       </c>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>0</v>
-      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
       <c r="R12" s="8">
         <v>5765</v>
       </c>
@@ -3346,9 +3291,7 @@
       <c r="AB12" s="8">
         <v>2843888</v>
       </c>
-      <c r="AC12" s="8">
-        <v>0</v>
-      </c>
+      <c r="AC12" s="8"/>
       <c r="AD12" s="8">
         <v>579134</v>
       </c>
@@ -3471,12 +3414,8 @@
       <c r="O13" s="8">
         <v>302</v>
       </c>
-      <c r="P13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>0</v>
-      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
       <c r="R13" s="8">
         <v>5611</v>
       </c>
@@ -3510,9 +3449,7 @@
       <c r="AB13" s="8">
         <v>2938296</v>
       </c>
-      <c r="AC13" s="8">
-        <v>0</v>
-      </c>
+      <c r="AC13" s="8"/>
       <c r="AD13" s="8">
         <v>577674</v>
       </c>
@@ -3635,12 +3572,8 @@
       <c r="O14" s="8">
         <v>341</v>
       </c>
-      <c r="P14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>0</v>
-      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
       <c r="R14" s="8">
         <v>6005</v>
       </c>
@@ -3799,12 +3732,8 @@
       <c r="O15" s="8">
         <v>333</v>
       </c>
-      <c r="P15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>0</v>
-      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
       <c r="R15" s="8">
         <v>5991</v>
       </c>
@@ -3963,12 +3892,8 @@
       <c r="O16" s="8">
         <v>304</v>
       </c>
-      <c r="P16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>0</v>
-      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
       <c r="R16" s="8">
         <v>5041</v>
       </c>
@@ -4127,12 +4052,8 @@
       <c r="O17" s="8">
         <v>291</v>
       </c>
-      <c r="P17" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>0</v>
-      </c>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
       <c r="R17" s="8">
         <v>4546</v>
       </c>
@@ -4291,12 +4212,8 @@
       <c r="O18" s="8">
         <v>289</v>
       </c>
-      <c r="P18" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>0</v>
-      </c>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
       <c r="R18" s="8">
         <v>4908</v>
       </c>
@@ -4455,12 +4372,8 @@
       <c r="O19" s="8">
         <v>267</v>
       </c>
-      <c r="P19" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>0</v>
-      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
       <c r="R19" s="8">
         <v>4391</v>
       </c>
@@ -4619,12 +4532,8 @@
       <c r="O20" s="8">
         <v>296</v>
       </c>
-      <c r="P20" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>0</v>
-      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
       <c r="R20" s="8">
         <v>4772</v>
       </c>
@@ -4783,12 +4692,8 @@
       <c r="O21" s="8">
         <v>324</v>
       </c>
-      <c r="P21" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>0</v>
-      </c>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
       <c r="R21" s="8">
         <v>5122</v>
       </c>
@@ -4947,12 +4852,8 @@
       <c r="O22" s="8">
         <v>364</v>
       </c>
-      <c r="P22" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>0</v>
-      </c>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
       <c r="R22" s="8">
         <v>5051</v>
       </c>
@@ -5111,12 +5012,8 @@
       <c r="O23" s="8">
         <v>413</v>
       </c>
-      <c r="P23" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>0</v>
-      </c>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
       <c r="R23" s="8">
         <v>5043</v>
       </c>
@@ -5275,12 +5172,8 @@
       <c r="O24" s="8">
         <v>463</v>
       </c>
-      <c r="P24" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>0</v>
-      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
       <c r="R24" s="8">
         <v>5399</v>
       </c>
@@ -5439,12 +5332,8 @@
       <c r="O25" s="8">
         <v>504</v>
       </c>
-      <c r="P25" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>0</v>
-      </c>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
       <c r="R25" s="8">
         <v>5302</v>
       </c>
@@ -5606,9 +5495,7 @@
       <c r="P26" s="8">
         <v>2430</v>
       </c>
-      <c r="Q26" s="8">
-        <v>0</v>
-      </c>
+      <c r="Q26" s="8"/>
       <c r="R26" s="8">
         <v>5448</v>
       </c>
@@ -5770,9 +5657,7 @@
       <c r="P27" s="8">
         <v>2832</v>
       </c>
-      <c r="Q27" s="8">
-        <v>0</v>
-      </c>
+      <c r="Q27" s="8"/>
       <c r="R27" s="8">
         <v>5642</v>
       </c>
@@ -5934,9 +5819,7 @@
       <c r="P28" s="8">
         <v>2646</v>
       </c>
-      <c r="Q28" s="8">
-        <v>0</v>
-      </c>
+      <c r="Q28" s="8"/>
       <c r="R28" s="8">
         <v>5543</v>
       </c>
@@ -6098,9 +5981,7 @@
       <c r="P29" s="8">
         <v>2058</v>
       </c>
-      <c r="Q29" s="8">
-        <v>0</v>
-      </c>
+      <c r="Q29" s="8"/>
       <c r="R29" s="8">
         <v>5746</v>
       </c>
@@ -6262,9 +6143,7 @@
       <c r="P30" s="8">
         <v>1892</v>
       </c>
-      <c r="Q30" s="8">
-        <v>0</v>
-      </c>
+      <c r="Q30" s="8"/>
       <c r="R30" s="8">
         <v>6720</v>
       </c>
@@ -6426,9 +6305,7 @@
       <c r="P31" s="8">
         <v>2174</v>
       </c>
-      <c r="Q31" s="8">
-        <v>0</v>
-      </c>
+      <c r="Q31" s="8"/>
       <c r="R31" s="8">
         <v>7371</v>
       </c>
@@ -6590,9 +6467,7 @@
       <c r="P32" s="8">
         <v>1965</v>
       </c>
-      <c r="Q32" s="8">
-        <v>0</v>
-      </c>
+      <c r="Q32" s="8"/>
       <c r="R32" s="8">
         <v>7505</v>
       </c>
@@ -6754,9 +6629,7 @@
       <c r="P33" s="8">
         <v>1975</v>
       </c>
-      <c r="Q33" s="8">
-        <v>0</v>
-      </c>
+      <c r="Q33" s="8"/>
       <c r="R33" s="8">
         <v>7812</v>
       </c>
@@ -8120,9 +7993,7 @@
       <c r="AH41" s="8">
         <v>5827</v>
       </c>
-      <c r="AI41" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI41" s="8"/>
       <c r="AJ41" s="8">
         <v>7889</v>
       </c>
@@ -8284,9 +8155,7 @@
       <c r="AH42" s="8">
         <v>5810</v>
       </c>
-      <c r="AI42" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI42" s="8"/>
       <c r="AJ42" s="8">
         <v>8124</v>
       </c>
@@ -8448,9 +8317,7 @@
       <c r="AH43" s="8">
         <v>5248</v>
       </c>
-      <c r="AI43" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI43" s="8"/>
       <c r="AJ43" s="8">
         <v>7688</v>
       </c>
@@ -8514,7 +8381,7 @@
         <v>96</v>
       </c>
       <c r="B44" s="6">
-        <v>50127452</v>
+        <v>50025916</v>
       </c>
       <c r="C44" s="7">
         <v>25763383</v>
@@ -8544,7 +8411,7 @@
         <v>23162943</v>
       </c>
       <c r="L44" s="7">
-        <v>17577095</v>
+        <v>17475559</v>
       </c>
       <c r="M44" s="8">
         <v>175185</v>
@@ -8612,9 +8479,7 @@
       <c r="AH44" s="8">
         <v>5066</v>
       </c>
-      <c r="AI44" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI44" s="8"/>
       <c r="AJ44" s="8">
         <v>7806</v>
       </c>
@@ -8628,7 +8493,7 @@
         <v>367851</v>
       </c>
       <c r="AN44" s="8">
-        <v>568538</v>
+        <v>467002</v>
       </c>
       <c r="AO44" s="8">
         <v>7643</v>
@@ -8678,7 +8543,7 @@
         <v>97</v>
       </c>
       <c r="B45" s="6">
-        <v>46683982</v>
+        <v>46588293</v>
       </c>
       <c r="C45" s="7">
         <v>23630957</v>
@@ -8708,7 +8573,7 @@
         <v>21068674</v>
       </c>
       <c r="L45" s="7">
-        <v>16476656</v>
+        <v>16380967</v>
       </c>
       <c r="M45" s="8">
         <v>165036</v>
@@ -8776,9 +8641,7 @@
       <c r="AH45" s="8">
         <v>4726</v>
       </c>
-      <c r="AI45" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI45" s="8"/>
       <c r="AJ45" s="8">
         <v>7563</v>
       </c>
@@ -8792,7 +8655,7 @@
         <v>336156</v>
       </c>
       <c r="AN45" s="8">
-        <v>530976</v>
+        <v>435287</v>
       </c>
       <c r="AO45" s="8">
         <v>7407</v>
@@ -8842,7 +8705,7 @@
         <v>98</v>
       </c>
       <c r="B46" s="6">
-        <v>49969477</v>
+        <v>49869232</v>
       </c>
       <c r="C46" s="9">
         <v>25724695</v>
@@ -8872,7 +8735,7 @@
         <v>23018088</v>
       </c>
       <c r="L46" s="9">
-        <v>17261523</v>
+        <v>17161278</v>
       </c>
       <c r="M46" s="8">
         <v>169065</v>
@@ -8940,9 +8803,7 @@
       <c r="AH46" s="8">
         <v>4566</v>
       </c>
-      <c r="AI46" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI46" s="8"/>
       <c r="AJ46" s="8">
         <v>7767</v>
       </c>
@@ -8956,7 +8817,7 @@
         <v>360515</v>
       </c>
       <c r="AN46" s="8">
-        <v>576525</v>
+        <v>476280</v>
       </c>
       <c r="AO46" s="8">
         <v>11253</v>
@@ -9006,7 +8867,7 @@
         <v>99</v>
       </c>
       <c r="B47" s="6">
-        <v>51421860</v>
+        <v>51310426</v>
       </c>
       <c r="C47" s="7">
         <v>26627276</v>
@@ -9036,7 +8897,7 @@
         <v>23793523</v>
       </c>
       <c r="L47" s="7">
-        <v>17762657</v>
+        <v>17651223</v>
       </c>
       <c r="M47" s="8">
         <v>174689</v>
@@ -9104,9 +8965,7 @@
       <c r="AH47" s="8">
         <v>4852</v>
       </c>
-      <c r="AI47" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI47" s="8"/>
       <c r="AJ47" s="8">
         <v>8112</v>
       </c>
@@ -9120,7 +8979,7 @@
         <v>375552</v>
       </c>
       <c r="AN47" s="8">
-        <v>605575</v>
+        <v>494141</v>
       </c>
       <c r="AO47" s="8">
         <v>12330</v>
@@ -9170,7 +9029,7 @@
         <v>100</v>
       </c>
       <c r="B48" s="6">
-        <v>51582320</v>
+        <v>51472686</v>
       </c>
       <c r="C48" s="10">
         <v>26941848</v>
@@ -9200,7 +9059,7 @@
         <v>24147457</v>
       </c>
       <c r="L48" s="10">
-        <v>17654123</v>
+        <v>17544489</v>
       </c>
       <c r="M48" s="8">
         <v>170863</v>
@@ -9268,9 +9127,7 @@
       <c r="AH48" s="8">
         <v>4939</v>
       </c>
-      <c r="AI48" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI48" s="8"/>
       <c r="AJ48" s="8">
         <v>7851</v>
       </c>
@@ -9284,7 +9141,7 @@
         <v>366123</v>
       </c>
       <c r="AN48" s="8">
-        <v>607859</v>
+        <v>498225</v>
       </c>
       <c r="AO48" s="8">
         <v>14575</v>
@@ -9334,7 +9191,7 @@
         <v>101</v>
       </c>
       <c r="B49" s="6">
-        <v>54862820</v>
+        <v>54748463</v>
       </c>
       <c r="C49" s="7">
         <v>28626064</v>
@@ -9364,7 +9221,7 @@
         <v>25672999</v>
       </c>
       <c r="L49" s="7">
-        <v>18811567</v>
+        <v>18697210</v>
       </c>
       <c r="M49" s="8">
         <v>182076</v>
@@ -9432,9 +9289,7 @@
       <c r="AH49" s="8">
         <v>5263</v>
       </c>
-      <c r="AI49" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI49" s="8"/>
       <c r="AJ49" s="8">
         <v>8329</v>
       </c>
@@ -9448,7 +9303,7 @@
         <v>412641</v>
       </c>
       <c r="AN49" s="8">
-        <v>653328</v>
+        <v>538971</v>
       </c>
       <c r="AO49" s="8">
         <v>17294</v>
@@ -9498,7 +9353,7 @@
         <v>102</v>
       </c>
       <c r="B50" s="6">
-        <v>47928208</v>
+        <v>47828119</v>
       </c>
       <c r="C50" s="7">
         <v>24840908</v>
@@ -9521,14 +9376,12 @@
       <c r="I50" s="8">
         <v>100921</v>
       </c>
-      <c r="J50" s="8">
-        <v>0</v>
-      </c>
+      <c r="J50" s="8"/>
       <c r="K50" s="8">
         <v>22510040</v>
       </c>
       <c r="L50" s="7">
-        <v>16196149</v>
+        <v>16096060</v>
       </c>
       <c r="M50" s="8">
         <v>159139</v>
@@ -9596,9 +9449,7 @@
       <c r="AH50" s="8">
         <v>4133</v>
       </c>
-      <c r="AI50" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI50" s="8"/>
       <c r="AJ50" s="8">
         <v>7529</v>
       </c>
@@ -9612,7 +9463,7 @@
         <v>320914</v>
       </c>
       <c r="AN50" s="8">
-        <v>579168</v>
+        <v>479079</v>
       </c>
       <c r="AO50" s="8">
         <v>16602</v>
@@ -9662,7 +9513,7 @@
         <v>103</v>
       </c>
       <c r="B51" s="6">
-        <v>53860742</v>
+        <v>53749820</v>
       </c>
       <c r="C51" s="7">
         <v>28270297</v>
@@ -9685,14 +9536,12 @@
       <c r="I51" s="8">
         <v>108392</v>
       </c>
-      <c r="J51" s="8">
-        <v>0</v>
-      </c>
+      <c r="J51" s="8"/>
       <c r="K51" s="8">
         <v>25754991</v>
       </c>
       <c r="L51" s="7">
-        <v>18097925</v>
+        <v>17987003</v>
       </c>
       <c r="M51" s="8">
         <v>174644</v>
@@ -9760,9 +9609,7 @@
       <c r="AH51" s="8">
         <v>4228</v>
       </c>
-      <c r="AI51" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI51" s="8"/>
       <c r="AJ51" s="8">
         <v>8154</v>
       </c>
@@ -9776,7 +9623,7 @@
         <v>391718</v>
       </c>
       <c r="AN51" s="8">
-        <v>641889</v>
+        <v>530967</v>
       </c>
       <c r="AO51" s="8">
         <v>21456</v>
@@ -9826,7 +9673,7 @@
         <v>104</v>
       </c>
       <c r="B52" s="6">
-        <v>56906246</v>
+        <v>56789912</v>
       </c>
       <c r="C52" s="7">
         <v>29514420</v>
@@ -9849,14 +9696,12 @@
       <c r="I52" s="8">
         <v>114130</v>
       </c>
-      <c r="J52" s="8">
-        <v>0</v>
-      </c>
+      <c r="J52" s="8"/>
       <c r="K52" s="8">
         <v>26866907</v>
       </c>
       <c r="L52" s="7">
-        <v>19443941</v>
+        <v>19327607</v>
       </c>
       <c r="M52" s="8">
         <v>190035</v>
@@ -9924,9 +9769,7 @@
       <c r="AH52" s="8">
         <v>4458</v>
       </c>
-      <c r="AI52" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI52" s="8"/>
       <c r="AJ52" s="8">
         <v>8770</v>
       </c>
@@ -9940,7 +9783,7 @@
         <v>438846</v>
       </c>
       <c r="AN52" s="8">
-        <v>685040</v>
+        <v>568706</v>
       </c>
       <c r="AO52" s="8">
         <v>17639</v>
@@ -9990,7 +9833,7 @@
         <v>105</v>
       </c>
       <c r="B53" s="6">
-        <v>63035057</v>
+        <v>62910253</v>
       </c>
       <c r="C53" s="7">
         <v>32312216</v>
@@ -10013,14 +9856,12 @@
       <c r="I53" s="8">
         <v>124356</v>
       </c>
-      <c r="J53" s="8">
-        <v>0</v>
-      </c>
+      <c r="J53" s="8"/>
       <c r="K53" s="8">
         <v>29332419</v>
       </c>
       <c r="L53" s="7">
-        <v>21756109</v>
+        <v>21631305</v>
       </c>
       <c r="M53" s="8">
         <v>208846</v>
@@ -10088,9 +9929,7 @@
       <c r="AH53" s="8">
         <v>4941</v>
       </c>
-      <c r="AI53" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI53" s="8"/>
       <c r="AJ53" s="8">
         <v>9612</v>
       </c>
@@ -10104,7 +9943,7 @@
         <v>518243</v>
       </c>
       <c r="AN53" s="8">
-        <v>749333</v>
+        <v>624529</v>
       </c>
       <c r="AO53" s="8">
         <v>17699</v>
@@ -10154,10 +9993,10 @@
         <v>106</v>
       </c>
       <c r="B54" s="6">
-        <v>64610824</v>
+        <v>64438925</v>
       </c>
       <c r="C54" s="7">
-        <v>33675881</v>
+        <v>33623419</v>
       </c>
       <c r="D54" s="8">
         <v>24149</v>
@@ -10177,14 +10016,12 @@
       <c r="I54" s="8">
         <v>124834</v>
       </c>
-      <c r="J54" s="8">
-        <v>0</v>
-      </c>
+      <c r="J54" s="8"/>
       <c r="K54" s="8">
-        <v>30664698</v>
+        <v>30612236</v>
       </c>
       <c r="L54" s="7">
-        <v>21720704</v>
+        <v>21601267</v>
       </c>
       <c r="M54" s="8">
         <v>205798</v>
@@ -10252,9 +10089,7 @@
       <c r="AH54" s="8">
         <v>5053</v>
       </c>
-      <c r="AI54" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI54" s="8"/>
       <c r="AJ54" s="8">
         <v>9524</v>
       </c>
@@ -10268,7 +10103,7 @@
         <v>529883</v>
       </c>
       <c r="AN54" s="8">
-        <v>721820</v>
+        <v>602383</v>
       </c>
       <c r="AO54" s="8">
         <v>18838</v>
@@ -10318,10 +10153,10 @@
         <v>107</v>
       </c>
       <c r="B55" s="6">
-        <v>68576595</v>
+        <v>68393337</v>
       </c>
       <c r="C55" s="7">
-        <v>35874001</v>
+        <v>35817028</v>
       </c>
       <c r="D55" s="8">
         <v>25396</v>
@@ -10341,14 +10176,12 @@
       <c r="I55" s="8">
         <v>130846</v>
       </c>
-      <c r="J55" s="8">
-        <v>0</v>
-      </c>
+      <c r="J55" s="8"/>
       <c r="K55" s="8">
-        <v>32505689</v>
+        <v>32448716</v>
       </c>
       <c r="L55" s="7">
-        <v>22996327</v>
+        <v>22867213</v>
       </c>
       <c r="M55" s="8">
         <v>221461</v>
@@ -10416,9 +10249,7 @@
       <c r="AH55" s="8">
         <v>5365</v>
       </c>
-      <c r="AI55" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI55" s="8"/>
       <c r="AJ55" s="8">
         <v>10125</v>
       </c>
@@ -10432,7 +10263,7 @@
         <v>583049</v>
       </c>
       <c r="AN55" s="8">
-        <v>796054</v>
+        <v>666940</v>
       </c>
       <c r="AO55" s="8">
         <v>20840</v>
@@ -10441,10 +10272,10 @@
         <v>2310931</v>
       </c>
       <c r="AQ55" s="7">
-        <v>9504241</v>
+        <v>9507070</v>
       </c>
       <c r="AR55" s="8">
-        <v>2581671</v>
+        <v>2584500</v>
       </c>
       <c r="AS55" s="8">
         <v>3137913</v>
@@ -10482,10 +10313,10 @@
         <v>108</v>
       </c>
       <c r="B56" s="6">
-        <v>68362376</v>
+        <v>68185384</v>
       </c>
       <c r="C56" s="7">
-        <v>35782017</v>
+        <v>35724121</v>
       </c>
       <c r="D56" s="8">
         <v>30012</v>
@@ -10505,14 +10336,12 @@
       <c r="I56" s="8">
         <v>125955</v>
       </c>
-      <c r="J56" s="8">
-        <v>0</v>
-      </c>
+      <c r="J56" s="8"/>
       <c r="K56" s="8">
-        <v>32498623</v>
+        <v>32440727</v>
       </c>
       <c r="L56" s="7">
-        <v>22737549</v>
+        <v>22609735</v>
       </c>
       <c r="M56" s="8">
         <v>219504</v>
@@ -10580,9 +10409,7 @@
       <c r="AH56" s="8">
         <v>5358</v>
       </c>
-      <c r="AI56" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI56" s="8"/>
       <c r="AJ56" s="8">
         <v>10221</v>
       </c>
@@ -10596,7 +10423,7 @@
         <v>566328</v>
       </c>
       <c r="AN56" s="8">
-        <v>799979</v>
+        <v>672165</v>
       </c>
       <c r="AO56" s="8">
         <v>22776</v>
@@ -10605,10 +10432,10 @@
         <v>2259582</v>
       </c>
       <c r="AQ56" s="7">
-        <v>9646565</v>
+        <v>9655283</v>
       </c>
       <c r="AR56" s="8">
-        <v>2540804</v>
+        <v>2549522</v>
       </c>
       <c r="AS56" s="8">
         <v>3256983</v>
@@ -10646,10 +10473,10 @@
         <v>109</v>
       </c>
       <c r="B57" s="6">
-        <v>71056724</v>
+        <v>70870860</v>
       </c>
       <c r="C57" s="7">
-        <v>37530927</v>
+        <v>37469910</v>
       </c>
       <c r="D57" s="8">
         <v>34562</v>
@@ -10669,14 +10496,12 @@
       <c r="I57" s="8">
         <v>128444</v>
       </c>
-      <c r="J57" s="8">
-        <v>0</v>
-      </c>
+      <c r="J57" s="8"/>
       <c r="K57" s="8">
-        <v>34154972</v>
+        <v>34093955</v>
       </c>
       <c r="L57" s="7">
-        <v>23328464</v>
+        <v>23198302</v>
       </c>
       <c r="M57" s="8">
         <v>221592</v>
@@ -10744,9 +10569,7 @@
       <c r="AH57" s="8">
         <v>5171</v>
       </c>
-      <c r="AI57" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI57" s="8"/>
       <c r="AJ57" s="8">
         <v>10669</v>
       </c>
@@ -10760,7 +10583,7 @@
         <v>609506</v>
       </c>
       <c r="AN57" s="8">
-        <v>835188</v>
+        <v>705026</v>
       </c>
       <c r="AO57" s="8">
         <v>20403</v>
@@ -10769,10 +10592,10 @@
         <v>2326084</v>
       </c>
       <c r="AQ57" s="7">
-        <v>10000368</v>
+        <v>10005683</v>
       </c>
       <c r="AR57" s="8">
-        <v>2619739</v>
+        <v>2625054</v>
       </c>
       <c r="AS57" s="8">
         <v>3530077</v>
@@ -10810,10 +10633,10 @@
         <v>110</v>
       </c>
       <c r="B58" s="6">
-        <v>67796358</v>
-      </c>
-      <c r="C58" s="7">
-        <v>35919900</v>
+        <v>67613913</v>
+      </c>
+      <c r="C58" s="9">
+        <v>35857636</v>
       </c>
       <c r="D58" s="8">
         <v>37304</v>
@@ -10833,20 +10656,18 @@
       <c r="I58" s="8">
         <v>133134</v>
       </c>
-      <c r="J58" s="8">
-        <v>0</v>
-      </c>
+      <c r="J58" s="8"/>
       <c r="K58" s="8">
-        <v>32305200</v>
-      </c>
-      <c r="L58" s="7">
-        <v>21820719</v>
+        <v>32242936</v>
+      </c>
+      <c r="L58" s="9">
+        <v>21701839</v>
       </c>
       <c r="M58" s="8">
         <v>206243</v>
       </c>
       <c r="N58" s="8">
-        <v>134415</v>
+        <v>132129</v>
       </c>
       <c r="O58" s="8">
         <v>1333</v>
@@ -10867,7 +10688,7 @@
         <v>132938</v>
       </c>
       <c r="U58" s="8">
-        <v>2378774</v>
+        <v>2359629</v>
       </c>
       <c r="V58" s="8">
         <v>2790589</v>
@@ -10908,9 +10729,7 @@
       <c r="AH58" s="8">
         <v>4378</v>
       </c>
-      <c r="AI58" s="8">
-        <v>0</v>
-      </c>
+      <c r="AI58" s="8"/>
       <c r="AJ58" s="8">
         <v>10334</v>
       </c>
@@ -10924,7 +10743,7 @@
         <v>549373</v>
       </c>
       <c r="AN58" s="8">
-        <v>784383</v>
+        <v>686934</v>
       </c>
       <c r="AO58" s="8">
         <v>21831</v>
@@ -10932,11 +10751,11 @@
       <c r="AP58" s="8">
         <v>2159421</v>
       </c>
-      <c r="AQ58" s="7">
-        <v>9844385</v>
+      <c r="AQ58" s="9">
+        <v>9843084</v>
       </c>
       <c r="AR58" s="8">
-        <v>2686415</v>
+        <v>2685114</v>
       </c>
       <c r="AS58" s="8">
         <v>3465167</v>
@@ -10962,236 +10781,556 @@
       <c r="AZ58" s="8">
         <v>8738</v>
       </c>
-      <c r="BA58" s="7">
+      <c r="BA58" s="9">
         <v>211354</v>
       </c>
       <c r="BB58" s="12">
         <v>211354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:54">
+      <c r="A59" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="6">
+        <v>59867554</v>
+      </c>
+      <c r="C59" s="7">
+        <v>31609146</v>
+      </c>
+      <c r="D59" s="8">
+        <v>35297</v>
+      </c>
+      <c r="E59" s="8">
+        <v>1352383</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1632581</v>
+      </c>
+      <c r="G59" s="8">
+        <v>49199</v>
+      </c>
+      <c r="H59" s="8">
+        <v>3409</v>
+      </c>
+      <c r="I59" s="8">
+        <v>132477</v>
+      </c>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8">
+        <v>28403800</v>
+      </c>
+      <c r="L59" s="7">
+        <v>18921640</v>
+      </c>
+      <c r="M59" s="8">
+        <v>180321</v>
+      </c>
+      <c r="N59" s="8">
+        <v>113956</v>
+      </c>
+      <c r="O59" s="8">
+        <v>1211</v>
+      </c>
+      <c r="P59" s="8">
+        <v>2302</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>6227</v>
+      </c>
+      <c r="R59" s="8">
+        <v>19135</v>
+      </c>
+      <c r="S59" s="8">
+        <v>147987</v>
+      </c>
+      <c r="T59" s="8">
+        <v>111639</v>
+      </c>
+      <c r="U59" s="8">
+        <v>2128102</v>
+      </c>
+      <c r="V59" s="8">
+        <v>2435218</v>
+      </c>
+      <c r="W59" s="8">
+        <v>6714</v>
+      </c>
+      <c r="X59" s="8">
+        <v>12217</v>
+      </c>
+      <c r="Y59" s="8">
+        <v>3838615</v>
+      </c>
+      <c r="Z59" s="8">
+        <v>210495</v>
+      </c>
+      <c r="AA59" s="8">
+        <v>72208</v>
+      </c>
+      <c r="AB59" s="8">
+        <v>5369682</v>
+      </c>
+      <c r="AC59" s="8">
+        <v>3146</v>
+      </c>
+      <c r="AD59" s="8">
+        <v>788509</v>
+      </c>
+      <c r="AE59" s="8">
+        <v>162520</v>
+      </c>
+      <c r="AF59" s="8">
+        <v>29342</v>
+      </c>
+      <c r="AG59" s="8">
+        <v>17036</v>
+      </c>
+      <c r="AH59" s="8">
+        <v>3657</v>
+      </c>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8">
+        <v>9269</v>
+      </c>
+      <c r="AK59" s="8">
+        <v>3922</v>
+      </c>
+      <c r="AL59" s="8">
+        <v>329583</v>
+      </c>
+      <c r="AM59" s="8">
+        <v>444433</v>
+      </c>
+      <c r="AN59" s="8">
+        <v>620597</v>
+      </c>
+      <c r="AO59" s="8">
+        <v>21534</v>
+      </c>
+      <c r="AP59" s="8">
+        <v>1832063</v>
+      </c>
+      <c r="AQ59" s="7">
+        <v>9153415</v>
+      </c>
+      <c r="AR59" s="8">
+        <v>2393185</v>
+      </c>
+      <c r="AS59" s="8">
+        <v>3510328</v>
+      </c>
+      <c r="AT59" s="8">
+        <v>151837</v>
+      </c>
+      <c r="AU59" s="8">
+        <v>445884</v>
+      </c>
+      <c r="AV59" s="8">
+        <v>1944002</v>
+      </c>
+      <c r="AW59" s="8">
+        <v>601646</v>
+      </c>
+      <c r="AX59" s="8">
+        <v>92614</v>
+      </c>
+      <c r="AY59" s="8">
+        <v>5998</v>
+      </c>
+      <c r="AZ59" s="8">
+        <v>7921</v>
+      </c>
+      <c r="BA59" s="7">
+        <v>183353</v>
+      </c>
+      <c r="BB59" s="12">
+        <v>183353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:54">
+      <c r="A60" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="6">
+        <v>56186599</v>
+      </c>
+      <c r="C60" s="10">
+        <v>30161378</v>
+      </c>
+      <c r="D60" s="8">
+        <v>38662</v>
+      </c>
+      <c r="E60" s="8">
+        <v>1359704</v>
+      </c>
+      <c r="F60" s="8">
+        <v>1495427</v>
+      </c>
+      <c r="G60" s="8">
+        <v>49752</v>
+      </c>
+      <c r="H60" s="8">
+        <v>3111</v>
+      </c>
+      <c r="I60" s="8">
+        <v>135044</v>
+      </c>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8">
+        <v>27079678</v>
+      </c>
+      <c r="L60" s="10">
+        <v>17285035</v>
+      </c>
+      <c r="M60" s="8">
+        <v>165857</v>
+      </c>
+      <c r="N60" s="8">
+        <v>101843</v>
+      </c>
+      <c r="O60" s="8">
+        <v>1107</v>
+      </c>
+      <c r="P60" s="8">
+        <v>2137</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>5704</v>
+      </c>
+      <c r="R60" s="8">
+        <v>18862</v>
+      </c>
+      <c r="S60" s="8">
+        <v>133671</v>
+      </c>
+      <c r="T60" s="8">
+        <v>102469</v>
+      </c>
+      <c r="U60" s="8">
+        <v>1963865</v>
+      </c>
+      <c r="V60" s="8">
+        <v>2214715</v>
+      </c>
+      <c r="W60" s="8">
+        <v>6349</v>
+      </c>
+      <c r="X60" s="8">
+        <v>12180</v>
+      </c>
+      <c r="Y60" s="8">
+        <v>3550114</v>
+      </c>
+      <c r="Z60" s="8">
+        <v>191866</v>
+      </c>
+      <c r="AA60" s="8">
+        <v>69820</v>
+      </c>
+      <c r="AB60" s="8">
+        <v>4910979</v>
+      </c>
+      <c r="AC60" s="8">
+        <v>2851</v>
+      </c>
+      <c r="AD60" s="8">
+        <v>698696</v>
+      </c>
+      <c r="AE60" s="8">
+        <v>147373</v>
+      </c>
+      <c r="AF60" s="8">
+        <v>25637</v>
+      </c>
+      <c r="AG60" s="8">
+        <v>15703</v>
+      </c>
+      <c r="AH60" s="8">
+        <v>3102</v>
+      </c>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8">
+        <v>8528</v>
+      </c>
+      <c r="AK60" s="8">
+        <v>3649</v>
+      </c>
+      <c r="AL60" s="8">
+        <v>303501</v>
+      </c>
+      <c r="AM60" s="8">
+        <v>406541</v>
+      </c>
+      <c r="AN60" s="8">
+        <v>585576</v>
+      </c>
+      <c r="AO60" s="8">
+        <v>25078</v>
+      </c>
+      <c r="AP60" s="8">
+        <v>1607262</v>
+      </c>
+      <c r="AQ60" s="10">
+        <v>8574195</v>
+      </c>
+      <c r="AR60" s="8">
+        <v>2232058</v>
+      </c>
+      <c r="AS60" s="8">
+        <v>3275227</v>
+      </c>
+      <c r="AT60" s="8">
+        <v>138545</v>
+      </c>
+      <c r="AU60" s="8">
+        <v>465895</v>
+      </c>
+      <c r="AV60" s="8">
+        <v>1829903</v>
+      </c>
+      <c r="AW60" s="8">
+        <v>539279</v>
+      </c>
+      <c r="AX60" s="8">
+        <v>81965</v>
+      </c>
+      <c r="AY60" s="8">
+        <v>5706</v>
+      </c>
+      <c r="AZ60" s="8">
+        <v>5617</v>
+      </c>
+      <c r="BA60" s="10">
+        <v>165991</v>
+      </c>
+      <c r="BB60" s="12">
+        <v>165991</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="82" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="cellIs" dxfId="0" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="80" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="0" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="81" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ1">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="1" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="20" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="cellIs" dxfId="1" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="23" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="1" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="17" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:C26">
-    <cfRule type="cellIs" dxfId="1" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="15" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:C34">
-    <cfRule type="cellIs" dxfId="1" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:C42">
-    <cfRule type="cellIs" dxfId="1" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="12" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:C50">
-    <cfRule type="cellIs" dxfId="1" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:C54">
-    <cfRule type="cellIs" dxfId="1" priority="28" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A9">
-    <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="72" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A17">
-    <cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A21">
-    <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A25">
-    <cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A29">
-    <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:A33">
-    <cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:A37">
-    <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A41">
-    <cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A45">
-    <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A49">
-    <cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:A53">
-    <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A57">
-    <cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:A60">
+    <cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D29">
-    <cfRule type="cellIs" dxfId="1" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:D53">
-    <cfRule type="cellIs" dxfId="1" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C9 D2:D9">
-    <cfRule type="cellIs" dxfId="1" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="21" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C5">
-    <cfRule type="cellIs" dxfId="1" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="19" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C17 D10:D17">
-    <cfRule type="cellIs" dxfId="1" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="24" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C13">
-    <cfRule type="cellIs" dxfId="1" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C25 D18:D25">
-    <cfRule type="cellIs" dxfId="1" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="18" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C21">
-    <cfRule type="cellIs" dxfId="1" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="16" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:C29">
-    <cfRule type="cellIs" dxfId="1" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="14" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:D33">
-    <cfRule type="cellIs" dxfId="1" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="10" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:C41 D34:D41">
-    <cfRule type="cellIs" dxfId="1" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:C37">
-    <cfRule type="cellIs" dxfId="1" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:C49 D42:D49">
-    <cfRule type="cellIs" dxfId="1" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:C45">
-    <cfRule type="cellIs" dxfId="1" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:C53">
-    <cfRule type="cellIs" dxfId="1" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:C58 D54:D58">
-    <cfRule type="cellIs" dxfId="1" priority="29" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B58:C60 D54:D60">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:C57">
-    <cfRule type="cellIs" dxfId="1" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tna.xlsx
+++ b/tna.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaneworner\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364570EF-D93A-4170-862C-01A42A944FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="11780"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="16080" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -353,19 +359,16 @@
   </si>
   <si>
     <t>2022Q3</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,350 +399,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -835,357 +519,316 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="5" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
-    <cellStyle name="Bad" xfId="24" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Output" xfId="27" builtinId="21"/>
-    <cellStyle name="Currency" xfId="28" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
-    <cellStyle name="Note" xfId="30" builtinId="10"/>
-    <cellStyle name="Input" xfId="31" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
-    <cellStyle name="Good" xfId="34" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="38" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="41" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color indexed="9"/>
@@ -1193,11 +836,22 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-        <family val="2"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="9"/>
       </font>
     </dxf>
   </dxfs>
@@ -1205,6 +859,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1462,19 +1119,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BB60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54">
       <c r="A1" s="1" t="s">
@@ -11108,233 +10765,397 @@
         <v>165991</v>
       </c>
     </row>
+    <row r="61" spans="1:54">
+      <c r="A61" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="13">
+        <v>60148431</v>
+      </c>
+      <c r="C61" s="14">
+        <v>31804483</v>
+      </c>
+      <c r="D61" s="15">
+        <v>38607</v>
+      </c>
+      <c r="E61" s="15">
+        <v>1395053</v>
+      </c>
+      <c r="F61" s="15">
+        <v>1585924</v>
+      </c>
+      <c r="G61" s="15">
+        <v>55375</v>
+      </c>
+      <c r="H61" s="15">
+        <v>2882</v>
+      </c>
+      <c r="I61" s="15">
+        <v>139789</v>
+      </c>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15">
+        <v>28586853</v>
+      </c>
+      <c r="L61" s="14">
+        <v>19058509</v>
+      </c>
+      <c r="M61" s="15">
+        <v>183129</v>
+      </c>
+      <c r="N61" s="15">
+        <v>113102</v>
+      </c>
+      <c r="O61" s="15">
+        <v>1232</v>
+      </c>
+      <c r="P61" s="15">
+        <v>2309</v>
+      </c>
+      <c r="Q61" s="15">
+        <v>6183</v>
+      </c>
+      <c r="R61" s="15">
+        <v>22679</v>
+      </c>
+      <c r="S61" s="15">
+        <v>146553</v>
+      </c>
+      <c r="T61" s="15">
+        <v>116914</v>
+      </c>
+      <c r="U61" s="15">
+        <v>2236006</v>
+      </c>
+      <c r="V61" s="15">
+        <v>2455306</v>
+      </c>
+      <c r="W61" s="15">
+        <v>7755</v>
+      </c>
+      <c r="X61" s="15">
+        <v>16084</v>
+      </c>
+      <c r="Y61" s="15">
+        <v>3898978</v>
+      </c>
+      <c r="Z61" s="15">
+        <v>216132</v>
+      </c>
+      <c r="AA61" s="15">
+        <v>74580</v>
+      </c>
+      <c r="AB61" s="15">
+        <v>5363351</v>
+      </c>
+      <c r="AC61" s="15">
+        <v>3026</v>
+      </c>
+      <c r="AD61" s="15">
+        <v>683879</v>
+      </c>
+      <c r="AE61" s="15">
+        <v>168417</v>
+      </c>
+      <c r="AF61" s="15">
+        <v>30450</v>
+      </c>
+      <c r="AG61" s="15">
+        <v>17494</v>
+      </c>
+      <c r="AH61" s="15">
+        <v>3231</v>
+      </c>
+      <c r="AI61" s="15"/>
+      <c r="AJ61" s="15">
+        <v>9381</v>
+      </c>
+      <c r="AK61" s="15">
+        <v>4104</v>
+      </c>
+      <c r="AL61" s="15">
+        <v>340003</v>
+      </c>
+      <c r="AM61" s="15">
+        <v>464633</v>
+      </c>
+      <c r="AN61" s="15">
+        <v>636985</v>
+      </c>
+      <c r="AO61" s="15">
+        <v>36463</v>
+      </c>
+      <c r="AP61" s="15">
+        <v>1800150</v>
+      </c>
+      <c r="AQ61" s="14">
+        <v>9100787</v>
+      </c>
+      <c r="AR61" s="15">
+        <v>2428888</v>
+      </c>
+      <c r="AS61" s="15">
+        <v>3266049</v>
+      </c>
+      <c r="AT61" s="15">
+        <v>152917</v>
+      </c>
+      <c r="AU61" s="15">
+        <v>475882</v>
+      </c>
+      <c r="AV61" s="15">
+        <v>2040234</v>
+      </c>
+      <c r="AW61" s="15">
+        <v>624187</v>
+      </c>
+      <c r="AX61" s="15">
+        <v>100677</v>
+      </c>
+      <c r="AY61" s="15">
+        <v>6838</v>
+      </c>
+      <c r="AZ61" s="15">
+        <v>5115</v>
+      </c>
+      <c r="BA61" s="14">
+        <v>184652</v>
+      </c>
+      <c r="BB61" s="16">
+        <v>184652</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="84" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="cellIs" dxfId="0" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="82" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="0" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="83" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="0" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="81" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ1">
-    <cfRule type="cellIs" dxfId="0" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="80" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1">
-    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="1" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="cellIs" dxfId="1" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="1" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:C26">
-    <cfRule type="cellIs" dxfId="1" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:C34">
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:C42">
-    <cfRule type="cellIs" dxfId="1" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="14" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:C50">
-    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:C54">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A9">
-    <cfRule type="cellIs" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="74" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
+    <cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:A17">
+    <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A21">
     <cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:A17">
+  <conditionalFormatting sqref="A22:A25">
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A21">
+  <conditionalFormatting sqref="A26:A29">
     <cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A25">
+  <conditionalFormatting sqref="A30:A33">
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A29">
+  <conditionalFormatting sqref="A34:A37">
     <cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:A33">
+  <conditionalFormatting sqref="A38:A41">
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A37">
+  <conditionalFormatting sqref="A42:A45">
     <cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:A41">
+  <conditionalFormatting sqref="A46:A49">
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:A45">
+  <conditionalFormatting sqref="A50:A53">
     <cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:A49">
+  <conditionalFormatting sqref="A54:A57">
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:A53">
+  <conditionalFormatting sqref="A58:A61">
     <cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A57">
-    <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A60">
-    <cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D26:D29">
-    <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="27" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:D53">
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C9 D2:D9">
-    <cfRule type="cellIs" dxfId="1" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C5">
-    <cfRule type="cellIs" dxfId="1" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="21" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C17 D10:D17">
-    <cfRule type="cellIs" dxfId="1" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="26" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C13">
-    <cfRule type="cellIs" dxfId="1" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="24" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C25 D18:D25">
-    <cfRule type="cellIs" dxfId="1" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="20" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C21">
-    <cfRule type="cellIs" dxfId="1" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:C29">
-    <cfRule type="cellIs" dxfId="1" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:D33">
-    <cfRule type="cellIs" dxfId="1" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:C41 D34:D41">
-    <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:C37">
-    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:C49 D42:D49">
-    <cfRule type="cellIs" dxfId="1" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="15" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:C45">
-    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:C53">
-    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:C60 D54:D60">
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55:C57">
     <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55:C57">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B61:D61">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>